--- a/target/classes/testdata/Animals_data.xlsx
+++ b/target/classes/testdata/Animals_data.xlsx
@@ -17,10 +17,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Rattlesnake</t>
+    <t>Amazon Parrot</t>
   </si>
   <si>
-    <t>Iguana</t>
+    <t>Finch</t>
   </si>
 </sst>
 </file>
